--- a/week 9 regresi linier/hitungan manual.xlsx
+++ b/week 9 regresi linier/hitungan manual.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\# Mengajar\Bu Nur\2020-2021 Big Data\Materi\Pertemuan 10 - Prediksi Regresi Linier Berganda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bahan Ajar Big Data\week 9 regresi linier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EA5ECD-07D7-4C8A-A201-F766023499A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F08307A-9847-4983-A47F-FA4A39E61FA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{35509B1D-BE83-4AE3-A168-12AB45CEA43E}"/>
   </bookViews>
@@ -19,6 +19,11 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -56,7 +61,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -105,7 +110,7 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -429,15 +434,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B84B4D-46C3-4BAD-B5AE-B7B33884B66D}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -471,15 +480,15 @@
         <v>1464</v>
       </c>
       <c r="D2" s="4">
-        <f>B2*B2</f>
+        <f t="shared" ref="D2:D25" si="0">B2*B2</f>
         <v>7.5625</v>
       </c>
       <c r="E2" s="3">
-        <f>C2*C2</f>
+        <f t="shared" ref="E2:E25" si="1">C2*C2</f>
         <v>2143296</v>
       </c>
       <c r="F2" s="4">
-        <f>B2*C2</f>
+        <f t="shared" ref="F2:F25" si="2">B2*C2</f>
         <v>4026</v>
       </c>
     </row>
@@ -495,21 +504,21 @@
         <v>1394</v>
       </c>
       <c r="D3" s="4">
-        <f>B3*B3</f>
+        <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
       <c r="E3" s="3">
-        <f>C3*C3</f>
+        <f t="shared" si="1"/>
         <v>1943236</v>
       </c>
       <c r="F3" s="4">
-        <f>B3*C3</f>
+        <f t="shared" si="2"/>
         <v>3485</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A25" si="0">A3+1</f>
+        <f t="shared" ref="A4:A25" si="3">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="4">
@@ -519,21 +528,21 @@
         <v>1357</v>
       </c>
       <c r="D4" s="4">
-        <f>B4*B4</f>
+        <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
       <c r="E4" s="3">
-        <f>C4*C4</f>
+        <f t="shared" si="1"/>
         <v>1841449</v>
       </c>
       <c r="F4" s="4">
-        <f>B4*C4</f>
+        <f t="shared" si="2"/>
         <v>3392.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B5" s="4">
@@ -543,21 +552,21 @@
         <v>1293</v>
       </c>
       <c r="D5" s="4">
-        <f>B5*B5</f>
+        <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
       <c r="E5" s="3">
-        <f>C5*C5</f>
+        <f t="shared" si="1"/>
         <v>1671849</v>
       </c>
       <c r="F5" s="4">
-        <f>B5*C5</f>
+        <f t="shared" si="2"/>
         <v>3232.5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B6" s="4">
@@ -567,21 +576,21 @@
         <v>1256</v>
       </c>
       <c r="D6" s="4">
-        <f>B6*B6</f>
+        <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
       <c r="E6" s="3">
-        <f>C6*C6</f>
+        <f t="shared" si="1"/>
         <v>1577536</v>
       </c>
       <c r="F6" s="4">
-        <f>B6*C6</f>
+        <f t="shared" si="2"/>
         <v>3140</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B7" s="4">
@@ -591,24 +600,22 @@
         <v>1254</v>
       </c>
       <c r="D7" s="4">
-        <f>B7*B7</f>
+        <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
       <c r="E7" s="3">
-        <f>C7*C7</f>
+        <f t="shared" si="1"/>
         <v>1572516</v>
       </c>
       <c r="F7" s="4">
-        <f>B7*C7</f>
+        <f t="shared" si="2"/>
         <v>3135</v>
       </c>
-      <c r="J7" s="2">
-        <v>2.2999999999999998</v>
-      </c>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B8" s="4">
@@ -618,21 +625,21 @@
         <v>1234</v>
       </c>
       <c r="D8" s="4">
-        <f>B8*B8</f>
+        <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
       <c r="E8" s="3">
-        <f>C8*C8</f>
+        <f t="shared" si="1"/>
         <v>1522756</v>
       </c>
       <c r="F8" s="4">
-        <f>B8*C8</f>
+        <f t="shared" si="2"/>
         <v>3085</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B9" s="4">
@@ -642,21 +649,21 @@
         <v>1195</v>
       </c>
       <c r="D9" s="4">
-        <f>B9*B9</f>
+        <f t="shared" si="0"/>
         <v>5.0625</v>
       </c>
       <c r="E9" s="3">
-        <f>C9*C9</f>
+        <f t="shared" si="1"/>
         <v>1428025</v>
       </c>
       <c r="F9" s="4">
-        <f>B9*C9</f>
+        <f t="shared" si="2"/>
         <v>2688.75</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B10" s="4">
@@ -666,21 +673,21 @@
         <v>1159</v>
       </c>
       <c r="D10" s="4">
-        <f>B10*B10</f>
+        <f t="shared" si="0"/>
         <v>5.0625</v>
       </c>
       <c r="E10" s="3">
-        <f>C10*C10</f>
+        <f t="shared" si="1"/>
         <v>1343281</v>
       </c>
       <c r="F10" s="4">
-        <f>B10*C10</f>
+        <f t="shared" si="2"/>
         <v>2607.75</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B11" s="4">
@@ -690,21 +697,21 @@
         <v>1167</v>
       </c>
       <c r="D11" s="4">
-        <f>B11*B11</f>
+        <f t="shared" si="0"/>
         <v>5.0625</v>
       </c>
       <c r="E11" s="3">
-        <f>C11*C11</f>
+        <f t="shared" si="1"/>
         <v>1361889</v>
       </c>
       <c r="F11" s="4">
-        <f>B11*C11</f>
+        <f t="shared" si="2"/>
         <v>2625.75</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B12" s="4">
@@ -714,21 +721,21 @@
         <v>1130</v>
       </c>
       <c r="D12" s="4">
-        <f>B12*B12</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E12" s="3">
-        <f>C12*C12</f>
+        <f t="shared" si="1"/>
         <v>1276900</v>
       </c>
       <c r="F12" s="4">
-        <f>B12*C12</f>
+        <f t="shared" si="2"/>
         <v>2260</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B13" s="4">
@@ -738,21 +745,21 @@
         <v>1075</v>
       </c>
       <c r="D13" s="4">
-        <f>B13*B13</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E13" s="3">
-        <f>C13*C13</f>
+        <f t="shared" si="1"/>
         <v>1155625</v>
       </c>
       <c r="F13" s="4">
-        <f>B13*C13</f>
+        <f t="shared" si="2"/>
         <v>2150</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B14" s="4">
@@ -762,21 +769,21 @@
         <v>1047</v>
       </c>
       <c r="D14" s="4">
-        <f>B14*B14</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E14" s="3">
-        <f>C14*C14</f>
+        <f t="shared" si="1"/>
         <v>1096209</v>
       </c>
       <c r="F14" s="4">
-        <f>B14*C14</f>
+        <f t="shared" si="2"/>
         <v>2094</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B15" s="4">
@@ -786,21 +793,21 @@
         <v>965</v>
       </c>
       <c r="D15" s="4">
-        <f>B15*B15</f>
+        <f t="shared" si="0"/>
         <v>3.0625</v>
       </c>
       <c r="E15" s="3">
-        <f>C15*C15</f>
+        <f t="shared" si="1"/>
         <v>931225</v>
       </c>
       <c r="F15" s="4">
-        <f>B15*C15</f>
+        <f t="shared" si="2"/>
         <v>1688.75</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B16" s="4">
@@ -810,21 +817,21 @@
         <v>943</v>
       </c>
       <c r="D16" s="4">
-        <f>B16*B16</f>
+        <f t="shared" si="0"/>
         <v>3.0625</v>
       </c>
       <c r="E16" s="3">
-        <f>C16*C16</f>
+        <f t="shared" si="1"/>
         <v>889249</v>
       </c>
       <c r="F16" s="4">
-        <f>B16*C16</f>
+        <f t="shared" si="2"/>
         <v>1650.25</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B17" s="4">
@@ -834,21 +841,21 @@
         <v>958</v>
       </c>
       <c r="D17" s="4">
-        <f>B17*B17</f>
+        <f t="shared" si="0"/>
         <v>3.0625</v>
       </c>
       <c r="E17" s="3">
-        <f>C17*C17</f>
+        <f t="shared" si="1"/>
         <v>917764</v>
       </c>
       <c r="F17" s="4">
-        <f>B17*C17</f>
+        <f t="shared" si="2"/>
         <v>1676.5</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B18" s="4">
@@ -858,21 +865,21 @@
         <v>971</v>
       </c>
       <c r="D18" s="4">
-        <f>B18*B18</f>
+        <f t="shared" si="0"/>
         <v>3.0625</v>
       </c>
       <c r="E18" s="3">
-        <f>C18*C18</f>
+        <f t="shared" si="1"/>
         <v>942841</v>
       </c>
       <c r="F18" s="4">
-        <f>B18*C18</f>
+        <f t="shared" si="2"/>
         <v>1699.25</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B19" s="4">
@@ -882,21 +889,21 @@
         <v>949</v>
       </c>
       <c r="D19" s="4">
-        <f>B19*B19</f>
+        <f t="shared" si="0"/>
         <v>3.0625</v>
       </c>
       <c r="E19" s="3">
-        <f>C19*C19</f>
+        <f t="shared" si="1"/>
         <v>900601</v>
       </c>
       <c r="F19" s="4">
-        <f>B19*C19</f>
+        <f t="shared" si="2"/>
         <v>1660.75</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B20" s="4">
@@ -906,21 +913,21 @@
         <v>884</v>
       </c>
       <c r="D20" s="4">
-        <f>B20*B20</f>
+        <f t="shared" si="0"/>
         <v>3.0625</v>
       </c>
       <c r="E20" s="3">
-        <f>C20*C20</f>
+        <f t="shared" si="1"/>
         <v>781456</v>
       </c>
       <c r="F20" s="4">
-        <f>B20*C20</f>
+        <f t="shared" si="2"/>
         <v>1547</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B21" s="4">
@@ -930,21 +937,21 @@
         <v>866</v>
       </c>
       <c r="D21" s="4">
-        <f>B21*B21</f>
+        <f t="shared" si="0"/>
         <v>3.0625</v>
       </c>
       <c r="E21" s="3">
-        <f>C21*C21</f>
+        <f t="shared" si="1"/>
         <v>749956</v>
       </c>
       <c r="F21" s="4">
-        <f>B21*C21</f>
+        <f t="shared" si="2"/>
         <v>1515.5</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B22" s="4">
@@ -954,21 +961,21 @@
         <v>876</v>
       </c>
       <c r="D22" s="4">
-        <f>B22*B22</f>
+        <f t="shared" si="0"/>
         <v>3.0625</v>
       </c>
       <c r="E22" s="3">
-        <f>C22*C22</f>
+        <f t="shared" si="1"/>
         <v>767376</v>
       </c>
       <c r="F22" s="4">
-        <f>B22*C22</f>
+        <f t="shared" si="2"/>
         <v>1533</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B23" s="4">
@@ -978,21 +985,21 @@
         <v>822</v>
       </c>
       <c r="D23" s="4">
-        <f>B23*B23</f>
+        <f t="shared" si="0"/>
         <v>3.0625</v>
       </c>
       <c r="E23" s="3">
-        <f>C23*C23</f>
+        <f t="shared" si="1"/>
         <v>675684</v>
       </c>
       <c r="F23" s="4">
-        <f>B23*C23</f>
+        <f t="shared" si="2"/>
         <v>1438.5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B24" s="4">
@@ -1002,21 +1009,21 @@
         <v>704</v>
       </c>
       <c r="D24" s="4">
-        <f>B24*B24</f>
+        <f t="shared" si="0"/>
         <v>3.0625</v>
       </c>
       <c r="E24" s="3">
-        <f>C24*C24</f>
+        <f t="shared" si="1"/>
         <v>495616</v>
       </c>
       <c r="F24" s="4">
-        <f>B24*C24</f>
+        <f t="shared" si="2"/>
         <v>1232</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B25" s="4">
@@ -1026,15 +1033,15 @@
         <v>719</v>
       </c>
       <c r="D25" s="4">
-        <f>B25*B25</f>
+        <f t="shared" si="0"/>
         <v>3.0625</v>
       </c>
       <c r="E25" s="3">
-        <f>C25*C25</f>
+        <f t="shared" si="1"/>
         <v>516961</v>
       </c>
       <c r="F25" s="4">
-        <f>B25*C25</f>
+        <f t="shared" si="2"/>
         <v>1258.25</v>
       </c>
     </row>
@@ -1047,19 +1054,19 @@
         <v>49.75</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" ref="C26:F26" si="1">SUM(C2:C25)</f>
+        <f t="shared" ref="C26:F26" si="4">SUM(C2:C25)</f>
         <v>25682</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>105.9375</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>28503296</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>54822</v>
       </c>
     </row>
